--- a/output/StructureDefinition-NatlDir-Location.xlsx
+++ b/output/StructureDefinition-NatlDir-Location.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-24T13:08:13-05:00</t>
+    <t>2021-11-29T12:19:39-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDir-Location.xlsx
+++ b/output/StructureDefinition-NatlDir-Location.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-29T12:19:39-05:00</t>
+    <t>2021-11-29T15:16:50-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDir-Location.xlsx
+++ b/output/StructureDefinition-NatlDir-Location.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-29T15:16:50-05:00</t>
+    <t>2021-12-02T09:56:35-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDir-Location.xlsx
+++ b/output/StructureDefinition-NatlDir-Location.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-02T09:56:35-05:00</t>
+    <t>2021-12-02T10:29:42-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDir-Location.xlsx
+++ b/output/StructureDefinition-NatlDir-Location.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/national-healthcare-directory/StructureDefinition/NatlDir-Location</t>
+    <t>http://hl7.org/fhir/us/national-directory/StructureDefinition/NatlDir-Location</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-02T10:29:42-05:00</t>
+    <t>2021-12-09T08:58:20-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -599,7 +599,7 @@
     <t>newpatients</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/national-healthcare-directory/StructureDefinition/newpatients}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/national-directory/StructureDefinition/newpatients}
 </t>
   </si>
   <si>
@@ -622,7 +622,7 @@
     <t>accessibility</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/national-healthcare-directory/StructureDefinition/accessibility}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/national-directory/StructureDefinition/accessibility}
 </t>
   </si>
   <si>
@@ -982,7 +982,7 @@
     <t>contactpoint-availabletime</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/national-healthcare-directory/StructureDefinition/contactpoint-availabletime}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/national-directory/StructureDefinition/contactpoint-availabletime}
 </t>
   </si>
   <si>
@@ -995,7 +995,7 @@
     <t>via-intermediary</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/national-healthcare-directory/StructureDefinition/via-intermediary}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/national-directory/StructureDefinition/via-intermediary}
 </t>
   </si>
   <si>
@@ -1466,7 +1466,7 @@
     <t>Location.managingOrganization</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/national-healthcare-directory/StructureDefinition/NatlDir-Organization)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/national-directory/StructureDefinition/NatlDir-Organization)
 </t>
   </si>
   <si>
@@ -1488,7 +1488,7 @@
     <t>Location.partOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/national-healthcare-directory/StructureDefinition/NatlDir-Location)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/national-directory/StructureDefinition/NatlDir-Location)
 </t>
   </si>
   <si>
@@ -1591,7 +1591,7 @@
     <t>Location.endpoint</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/national-healthcare-directory/StructureDefinition/NatlDir-Endpoint)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/national-directory/StructureDefinition/NatlDir-Endpoint)
 </t>
   </si>
   <si>

--- a/output/StructureDefinition-NatlDir-Location.xlsx
+++ b/output/StructureDefinition-NatlDir-Location.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-09T08:58:20-05:00</t>
+    <t>2021-12-16T09:47:40-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDir-Location.xlsx
+++ b/output/StructureDefinition-NatlDir-Location.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/national-directory/StructureDefinition/NatlDir-Location</t>
+    <t>http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/NatlDir-Location</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-16T09:47:40-05:00</t>
+    <t>2021-12-17T09:57:57-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -599,7 +599,7 @@
     <t>newpatients</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/national-directory/StructureDefinition/newpatients}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/newpatients}
 </t>
   </si>
   <si>
@@ -622,7 +622,7 @@
     <t>accessibility</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/national-directory/StructureDefinition/accessibility}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/accessibility}
 </t>
   </si>
   <si>
@@ -982,7 +982,7 @@
     <t>contactpoint-availabletime</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/national-directory/StructureDefinition/contactpoint-availabletime}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/contactpoint-availabletime}
 </t>
   </si>
   <si>
@@ -995,7 +995,7 @@
     <t>via-intermediary</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/national-directory/StructureDefinition/via-intermediary}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/via-intermediary}
 </t>
   </si>
   <si>
@@ -1466,7 +1466,7 @@
     <t>Location.managingOrganization</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/national-directory/StructureDefinition/NatlDir-Organization)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/NatlDir-Organization)
 </t>
   </si>
   <si>
@@ -1488,7 +1488,7 @@
     <t>Location.partOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/national-directory/StructureDefinition/NatlDir-Location)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/NatlDir-Location)
 </t>
   </si>
   <si>
@@ -1591,7 +1591,7 @@
     <t>Location.endpoint</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/national-directory/StructureDefinition/NatlDir-Endpoint)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/NatlDir-Endpoint)
 </t>
   </si>
   <si>

--- a/output/StructureDefinition-NatlDir-Location.xlsx
+++ b/output/StructureDefinition-NatlDir-Location.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/NatlDir-Location</t>
+    <t>http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/NatlDir-Location</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-17T09:57:57-05:00</t>
+    <t>2021-12-17T10:34:48-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -599,7 +599,7 @@
     <t>newpatients</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/newpatients}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/newpatients}
 </t>
   </si>
   <si>
@@ -622,7 +622,7 @@
     <t>accessibility</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/accessibility}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/accessibility}
 </t>
   </si>
   <si>
@@ -982,7 +982,7 @@
     <t>contactpoint-availabletime</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/contactpoint-availabletime}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/contactpoint-availabletime}
 </t>
   </si>
   <si>
@@ -995,7 +995,7 @@
     <t>via-intermediary</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/via-intermediary}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/via-intermediary}
 </t>
   </si>
   <si>
@@ -1466,7 +1466,7 @@
     <t>Location.managingOrganization</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/NatlDir-Organization)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/NatlDir-Organization)
 </t>
   </si>
   <si>
@@ -1488,7 +1488,7 @@
     <t>Location.partOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/NatlDir-Location)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/NatlDir-Location)
 </t>
   </si>
   <si>
@@ -1591,7 +1591,7 @@
     <t>Location.endpoint</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/NatlDir-Endpoint)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/NatlDir-Endpoint)
 </t>
   </si>
   <si>
